--- a/REGULAR/OJT/GUAÑEZO, MA.GINA.xlsx
+++ b/REGULAR/OJT/GUAÑEZO, MA.GINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ADCB02-ED0B-47CF-986D-0ED1144DBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="PERMANENT" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL EMPLOYEE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">PERMANENT!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="352">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1118,7 +1117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1733,6 +1732,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1740,12 +1745,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -2051,25 +2050,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K152" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2081,26 +2080,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7FC2EF0D-FFA7-4575-B51D-E33F9C65614A}" name="Table13" displayName="Table13" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K441" xr:uid="{7FC2EF0D-FFA7-4575-B51D-E33F9C65614A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K441" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K441"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{7B6269D3-CB4D-4A17-A416-E48C5E3CF0FD}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{157B525B-2CDD-4822-9BF4-A62E7A52B07E}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{D7FA0A89-D3C5-47AB-9ED7-E0165B8C6C71}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A457BFA4-CA8E-454B-AE11-2668341DA899}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{139169D4-9297-459C-96B6-09FF90576CB1}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8407D931-5484-4032-AE0E-CA3FF3FB926B}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{51997B82-9B48-44B9-9F27-4F8E7E8C2685}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E752D441-398E-4F4B-B335-95826B234D3E}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{B243056B-AFC7-4E4E-9162-8FF1EDA89E4A}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{85427EB9-F525-418D-B0C1-3B193EAFE8D4}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{283F6F20-F251-40E4-AC01-514D851DAA7A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2407,33 +2406,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:EJ151"/>
+  <dimension ref="A2:EJ152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A85" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <pane ySplit="4305" topLeftCell="A85" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:140" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:140" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2453,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2475,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:140" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:140" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2509,7 +2508,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2522,7 +2521,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2539,7 +2538,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:140" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:140" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2583,7 +2582,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.25</v>
+        <v>68.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2593,12 +2592,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>78.25</v>
+        <v>79.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>325</v>
       </c>
@@ -2620,7 +2619,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>42795</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>42826</v>
@@ -2661,7 +2660,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A20" si="0">EDATE(A12,1)</f>
         <v>42856</v>
@@ -2682,7 +2681,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="51"/>
     </row>
-    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f>EDATE(A13,1)</f>
         <v>42887</v>
@@ -2703,7 +2702,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>42917</v>
@@ -2724,7 +2723,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="51"/>
     </row>
-    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>42948</v>
@@ -2745,7 +2744,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>42979</v>
@@ -2766,7 +2765,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>43009</v>
@@ -2787,7 +2786,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="51"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>43040</v>
@@ -2808,7 +2807,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>43070</v>
@@ -2829,7 +2828,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>46</v>
       </c>
@@ -2847,7 +2846,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43101</v>
       </c>
@@ -2867,7 +2866,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43132</v>
       </c>
@@ -2887,7 +2886,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43160</v>
       </c>
@@ -2907,7 +2906,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43191</v>
       </c>
@@ -2927,7 +2926,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="51"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43221</v>
       </c>
@@ -2947,7 +2946,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="51"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43252</v>
       </c>
@@ -2967,7 +2966,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43282</v>
       </c>
@@ -2987,7 +2986,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43313</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43344</v>
       </c>
@@ -3027,7 +3026,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43374</v>
       </c>
@@ -3047,7 +3046,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43405</v>
       </c>
@@ -3067,7 +3066,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43435</v>
       </c>
@@ -3091,7 +3090,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>60</v>
       </c>
@@ -3109,7 +3108,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43466</v>
       </c>
@@ -3129,7 +3128,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43497</v>
       </c>
@@ -3149,7 +3148,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -3169,7 +3168,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43556</v>
       </c>
@@ -3189,7 +3188,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43586</v>
       </c>
@@ -3209,7 +3208,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43617</v>
       </c>
@@ -3229,7 +3228,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43647</v>
       </c>
@@ -3249,7 +3248,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43678</v>
       </c>
@@ -3269,7 +3268,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43709</v>
       </c>
@@ -3289,7 +3288,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43739</v>
       </c>
@@ -3309,7 +3308,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="48"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43770</v>
       </c>
@@ -3329,7 +3328,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43800</v>
       </c>
@@ -3353,7 +3352,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>65</v>
       </c>
@@ -3371,7 +3370,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>43831</v>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43862</v>
       </c>
@@ -3411,7 +3410,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43891</v>
       </c>
@@ -3431,7 +3430,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43922</v>
       </c>
@@ -3451,7 +3450,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43952</v>
       </c>
@@ -3471,7 +3470,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43983</v>
       </c>
@@ -3491,7 +3490,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44013</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44044</v>
       </c>
@@ -3531,7 +3530,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44075</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43831</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44136</v>
       </c>
@@ -3597,7 +3596,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44166</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>71</v>
       </c>
@@ -3639,7 +3638,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="48"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44197</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44228</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44256</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44287</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44317</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44348</v>
       </c>
@@ -3759,7 +3758,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44378</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44409</v>
       </c>
@@ -3797,7 +3796,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44440</v>
       </c>
@@ -3817,7 +3816,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44470</v>
       </c>
@@ -3837,7 +3836,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -3881,7 +3880,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
         <v>76</v>
       </c>
@@ -3899,7 +3898,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -3919,7 +3918,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -3939,7 +3938,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -3959,7 +3958,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44652</v>
       </c>
@@ -3979,7 +3978,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44682</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44713</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>106</v>
@@ -4053,7 +4052,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>166</v>
@@ -4075,7 +4074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44743</v>
       </c>
@@ -4095,7 +4094,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="48"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44774</v>
       </c>
@@ -4115,7 +4114,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44805</v>
       </c>
@@ -4135,7 +4134,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44835</v>
       </c>
@@ -4155,7 +4154,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44866</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44896</v>
       </c>
@@ -4205,7 +4204,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="50" t="s">
         <v>89</v>
       </c>
@@ -4223,7 +4222,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44927</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44958</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44986</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45017</v>
       </c>
@@ -4315,47 +4314,53 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45047</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
+      <c r="G93" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45078</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
+      <c r="G94" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45108</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -4367,13 +4372,15 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B96" s="20"/>
+      <c r="K95" s="48">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40"/>
+      <c r="B96" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
@@ -4382,14 +4389,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="39"/>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="48">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4405,9 +4416,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4423,9 +4434,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4441,9 +4452,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4459,9 +4470,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4477,9 +4488,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4495,9 +4506,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4513,9 +4524,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4531,9 +4542,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4549,9 +4560,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4567,9 +4578,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4585,9 +4596,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4603,9 +4614,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4621,9 +4632,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4639,9 +4650,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4655,11 +4666,11 @@
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="48"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4673,11 +4684,11 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="48"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4693,9 +4704,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4711,9 +4722,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4729,9 +4740,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4747,9 +4758,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4765,9 +4776,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4783,9 +4794,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -4801,9 +4812,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -4819,9 +4830,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4837,9 +4848,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -4855,9 +4866,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4873,9 +4884,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4891,9 +4902,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4909,9 +4920,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4927,9 +4938,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4945,9 +4956,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4963,9 +4974,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45566</v>
+        <v>46113</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4981,9 +4992,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4999,9 +5010,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5017,9 +5028,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5035,9 +5046,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5053,9 +5064,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5071,9 +5082,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5089,9 +5100,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5107,9 +5118,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5125,9 +5136,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5143,9 +5154,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5161,9 +5172,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5179,9 +5190,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5197,9 +5208,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5215,9 +5226,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5233,9 +5244,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5251,9 +5262,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5269,9 +5280,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5287,9 +5298,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5305,8 +5316,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="40"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40">
+        <v>46113</v>
+      </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
@@ -5321,7 +5334,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5337,7 +5350,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5353,21 +5366,37 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A151" s="41"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="42"/>
-      <c r="D151" s="43"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="42" t="str">
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H151" s="43"/>
+      <c r="H151" s="39"/>
       <c r="I151" s="9"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="15"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="43"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5384,10 +5413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5410,34 +5439,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17649CD9-BD11-4CB7-80D4-19F2CEF4B051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:EJ441"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A405"/>
+      <pane ySplit="4305" topLeftCell="A405"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:140" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:140" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5458,7 +5487,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5480,7 +5509,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:140" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:140" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5505,7 +5534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5513,7 +5542,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5526,7 +5555,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -5543,7 +5572,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:140" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:140" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5578,7 +5607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5602,7 +5631,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>94</v>
       </c>
@@ -5624,7 +5653,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36846</v>
       </c>
@@ -5644,7 +5673,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36861</v>
       </c>
@@ -5668,7 +5697,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>95</v>
       </c>
@@ -5686,7 +5715,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36892</v>
       </c>
@@ -5710,7 +5739,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>98</v>
@@ -5729,7 +5758,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:140" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:140" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36923</v>
       </c>
@@ -5749,7 +5778,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36951</v>
       </c>
@@ -5769,7 +5798,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36982</v>
       </c>
@@ -5789,7 +5818,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>37012</v>
       </c>
@@ -5809,7 +5838,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>37043</v>
       </c>
@@ -5829,7 +5858,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>37073</v>
       </c>
@@ -5853,7 +5882,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>37104</v>
       </c>
@@ -5877,7 +5906,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>102</v>
@@ -5894,7 +5923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>37135</v>
       </c>
@@ -5918,7 +5947,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>37165</v>
       </c>
@@ -5942,7 +5971,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>37196</v>
       </c>
@@ -5968,7 +5997,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>107</v>
@@ -5985,7 +6014,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>37226</v>
       </c>
@@ -6011,7 +6040,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>106</v>
@@ -6033,7 +6062,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>109</v>
@@ -6053,7 +6082,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>108</v>
@@ -6073,7 +6102,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>110</v>
       </c>
@@ -6091,7 +6120,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>37257</v>
       </c>
@@ -6115,7 +6144,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>37288</v>
       </c>
@@ -6141,7 +6170,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>112</v>
@@ -6158,7 +6187,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>37316</v>
       </c>
@@ -6184,7 +6213,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>37347</v>
       </c>
@@ -6210,7 +6239,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>106</v>
@@ -6229,7 +6258,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>114</v>
@@ -6246,7 +6275,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>37377</v>
       </c>
@@ -6266,7 +6295,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>37408</v>
       </c>
@@ -6286,7 +6315,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>37438</v>
       </c>
@@ -6312,7 +6341,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37469</v>
       </c>
@@ -6336,7 +6365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>37500</v>
       </c>
@@ -6356,7 +6385,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>37530</v>
       </c>
@@ -6376,7 +6405,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37561</v>
       </c>
@@ -6402,7 +6431,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>37591</v>
       </c>
@@ -6422,7 +6451,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>118</v>
       </c>
@@ -6440,7 +6469,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37622</v>
       </c>
@@ -6460,7 +6489,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37653</v>
       </c>
@@ -6480,7 +6509,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37681</v>
       </c>
@@ -6500,7 +6529,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37712</v>
       </c>
@@ -6520,7 +6549,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37742</v>
       </c>
@@ -6540,7 +6569,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37773</v>
       </c>
@@ -6560,7 +6589,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37803</v>
       </c>
@@ -6580,7 +6609,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37834</v>
       </c>
@@ -6604,7 +6633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37865</v>
       </c>
@@ -6628,7 +6657,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37895</v>
       </c>
@@ -6652,7 +6681,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37926</v>
       </c>
@@ -6678,7 +6707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>121</v>
@@ -6695,7 +6724,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37956</v>
       </c>
@@ -6719,7 +6748,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>123</v>
@@ -6739,7 +6768,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
         <v>126</v>
       </c>
@@ -6757,7 +6786,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37987</v>
       </c>
@@ -6781,7 +6810,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>38018</v>
       </c>
@@ -6807,7 +6836,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>128</v>
@@ -6824,7 +6853,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>38047</v>
       </c>
@@ -6848,7 +6877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>38078</v>
       </c>
@@ -6868,7 +6897,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>38108</v>
       </c>
@@ -6892,7 +6921,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>38139</v>
       </c>
@@ -6912,7 +6941,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>38169</v>
       </c>
@@ -6938,7 +6967,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>102</v>
@@ -6955,7 +6984,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>132</v>
@@ -6972,7 +7001,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>38200</v>
       </c>
@@ -6996,7 +7025,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>38231</v>
       </c>
@@ -7020,7 +7049,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>38261</v>
       </c>
@@ -7046,7 +7075,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>136</v>
@@ -7063,7 +7092,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>38292</v>
       </c>
@@ -7089,7 +7118,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>137</v>
@@ -7106,7 +7135,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>38322</v>
       </c>
@@ -7130,7 +7159,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
         <v>140</v>
       </c>
@@ -7148,7 +7177,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>38353</v>
       </c>
@@ -7168,7 +7197,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>38384</v>
       </c>
@@ -7194,7 +7223,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>141</v>
@@ -7211,7 +7240,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38412</v>
       </c>
@@ -7237,7 +7266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>106</v>
@@ -7256,7 +7285,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>143</v>
@@ -7273,7 +7302,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38443</v>
       </c>
@@ -7297,7 +7326,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38473</v>
       </c>
@@ -7321,7 +7350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>131</v>
@@ -7340,7 +7369,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>106</v>
@@ -7359,7 +7388,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>146</v>
@@ -7376,7 +7405,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38504</v>
       </c>
@@ -7402,7 +7431,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>106</v>
@@ -7421,7 +7450,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>149</v>
@@ -7438,7 +7467,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>38534</v>
       </c>
@@ -7462,7 +7491,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38565</v>
       </c>
@@ -7486,7 +7515,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>152</v>
@@ -7503,7 +7532,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38596</v>
       </c>
@@ -7529,7 +7558,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>153</v>
@@ -7546,7 +7575,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38626</v>
       </c>
@@ -7566,7 +7595,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38657</v>
       </c>
@@ -7592,7 +7621,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>155</v>
@@ -7609,7 +7638,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>131</v>
@@ -7628,7 +7657,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38687</v>
       </c>
@@ -7652,7 +7681,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="50" t="s">
         <v>157</v>
       </c>
@@ -7670,7 +7699,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38718</v>
       </c>
@@ -7694,7 +7723,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38749</v>
       </c>
@@ -7720,7 +7749,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>131</v>
@@ -7739,7 +7768,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>161</v>
@@ -7756,7 +7785,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38777</v>
       </c>
@@ -7780,7 +7809,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>163</v>
@@ -7797,7 +7826,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="51"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38808</v>
       </c>
@@ -7823,7 +7852,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>106</v>
@@ -7842,7 +7871,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>164</v>
@@ -7859,7 +7888,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38838</v>
       </c>
@@ -7885,7 +7914,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>106</v>
@@ -7904,7 +7933,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>165</v>
@@ -7921,7 +7950,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38869</v>
       </c>
@@ -7947,7 +7976,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>166</v>
@@ -7966,7 +7995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>166</v>
@@ -7985,7 +8014,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>167</v>
@@ -8002,7 +8031,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38899</v>
       </c>
@@ -8028,7 +8057,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>170</v>
@@ -8045,7 +8074,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38930</v>
       </c>
@@ -8071,7 +8100,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>172</v>
@@ -8088,7 +8117,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38961</v>
       </c>
@@ -8114,7 +8143,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>106</v>
@@ -8133,7 +8162,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>174</v>
@@ -8150,7 +8179,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38991</v>
       </c>
@@ -8174,7 +8203,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39022</v>
       </c>
@@ -8200,7 +8229,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>131</v>
@@ -8219,7 +8248,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>116</v>
@@ -8238,7 +8267,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>175</v>
@@ -8255,7 +8284,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="51"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39052</v>
       </c>
@@ -8279,7 +8308,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="50" t="s">
         <v>179</v>
       </c>
@@ -8297,7 +8326,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39083</v>
       </c>
@@ -8323,7 +8352,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>180</v>
@@ -8340,7 +8369,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39114</v>
       </c>
@@ -8366,7 +8395,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>106</v>
@@ -8385,7 +8414,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>181</v>
@@ -8402,7 +8431,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39142</v>
       </c>
@@ -8428,7 +8457,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>166</v>
@@ -8447,7 +8476,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>131</v>
@@ -8466,7 +8495,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>182</v>
@@ -8483,7 +8512,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39173</v>
       </c>
@@ -8509,7 +8538,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>106</v>
@@ -8528,7 +8557,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>185</v>
@@ -8545,7 +8574,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>39203</v>
       </c>
@@ -8571,7 +8600,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>131</v>
@@ -8590,7 +8619,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>187</v>
@@ -8607,7 +8636,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>106</v>
@@ -8626,7 +8655,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39234</v>
       </c>
@@ -8650,7 +8679,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39264</v>
       </c>
@@ -8676,7 +8705,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39295</v>
       </c>
@@ -8700,7 +8729,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39326</v>
       </c>
@@ -8726,7 +8755,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -8745,7 +8774,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>192</v>
@@ -8762,7 +8791,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>131</v>
@@ -8781,7 +8810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>196</v>
@@ -8802,7 +8831,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39356</v>
       </c>
@@ -8826,7 +8855,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39387</v>
       </c>
@@ -8850,7 +8879,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39417</v>
       </c>
@@ -8876,7 +8905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>102</v>
@@ -8896,7 +8925,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>198</v>
@@ -8916,7 +8945,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="50" t="s">
         <v>200</v>
       </c>
@@ -8934,7 +8963,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39448</v>
       </c>
@@ -8958,7 +8987,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39479</v>
       </c>
@@ -8982,7 +9011,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>202</v>
@@ -8999,7 +9028,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39508</v>
       </c>
@@ -9025,7 +9054,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>131</v>
@@ -9044,7 +9073,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>203</v>
@@ -9061,7 +9090,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39539</v>
       </c>
@@ -9085,7 +9114,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39569</v>
       </c>
@@ -9111,7 +9140,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>166</v>
@@ -9130,7 +9159,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>207</v>
@@ -9147,7 +9176,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="51"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39600</v>
       </c>
@@ -9171,7 +9200,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39630</v>
       </c>
@@ -9193,7 +9222,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39661</v>
       </c>
@@ -9219,7 +9248,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>102</v>
@@ -9236,7 +9265,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>210</v>
@@ -9255,7 +9284,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>211</v>
@@ -9272,7 +9301,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39692</v>
       </c>
@@ -9296,7 +9325,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39722</v>
       </c>
@@ -9320,7 +9349,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39753</v>
       </c>
@@ -9346,7 +9375,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>122</v>
@@ -9365,7 +9394,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>215</v>
@@ -9382,7 +9411,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39783</v>
       </c>
@@ -9408,7 +9437,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>219</v>
@@ -9428,7 +9457,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="50" t="s">
         <v>220</v>
       </c>
@@ -9446,7 +9475,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39814</v>
       </c>
@@ -9470,7 +9499,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39845</v>
       </c>
@@ -9496,7 +9525,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>223</v>
@@ -9513,7 +9542,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39873</v>
       </c>
@@ -9537,7 +9566,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>224</v>
@@ -9554,7 +9583,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>106</v>
@@ -9573,7 +9602,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>131</v>
@@ -9592,7 +9621,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39904</v>
       </c>
@@ -9618,7 +9647,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>227</v>
@@ -9635,7 +9664,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39934</v>
       </c>
@@ -9661,7 +9690,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>228</v>
@@ -9678,7 +9707,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39965</v>
       </c>
@@ -9702,7 +9731,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>166</v>
@@ -9721,7 +9750,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>229</v>
@@ -9738,7 +9767,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39995</v>
       </c>
@@ -9764,7 +9793,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>166</v>
@@ -9783,7 +9812,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>231</v>
@@ -9800,7 +9829,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40026</v>
       </c>
@@ -9824,7 +9853,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>233</v>
@@ -9841,7 +9870,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40057</v>
       </c>
@@ -9867,7 +9896,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>234</v>
@@ -9884,7 +9913,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40087</v>
       </c>
@@ -9910,7 +9939,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>166</v>
@@ -9929,7 +9958,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>235</v>
@@ -9946,7 +9975,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40118</v>
       </c>
@@ -9972,7 +10001,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>237</v>
@@ -9989,7 +10018,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40148</v>
       </c>
@@ -10015,7 +10044,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>106</v>
@@ -10037,7 +10066,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>131</v>
@@ -10059,7 +10088,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="50" t="s">
         <v>241</v>
       </c>
@@ -10077,7 +10106,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40179</v>
       </c>
@@ -10101,7 +10130,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40210</v>
       </c>
@@ -10127,7 +10156,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>102</v>
@@ -10144,7 +10173,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>131</v>
@@ -10163,7 +10192,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>243</v>
@@ -10180,7 +10209,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40238</v>
       </c>
@@ -10204,7 +10233,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>246</v>
@@ -10221,7 +10250,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40269</v>
       </c>
@@ -10245,7 +10274,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40299</v>
       </c>
@@ -10271,7 +10300,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>107</v>
@@ -10288,7 +10317,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40330</v>
       </c>
@@ -10312,7 +10341,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>248</v>
@@ -10331,7 +10360,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>249</v>
@@ -10348,7 +10377,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40360</v>
       </c>
@@ -10372,7 +10401,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40391</v>
       </c>
@@ -10396,7 +10425,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>106</v>
@@ -10415,7 +10444,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>252</v>
@@ -10432,7 +10461,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="51"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40422</v>
       </c>
@@ -10458,7 +10487,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>131</v>
@@ -10477,7 +10506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>253</v>
@@ -10494,7 +10523,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40452</v>
       </c>
@@ -10520,7 +10549,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>254</v>
@@ -10537,7 +10566,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40483</v>
       </c>
@@ -10563,7 +10592,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>256</v>
@@ -10582,7 +10611,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>257</v>
@@ -10599,7 +10628,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>40513</v>
       </c>
@@ -10623,7 +10652,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="50" t="s">
         <v>259</v>
       </c>
@@ -10641,7 +10670,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>40544</v>
       </c>
@@ -10665,7 +10694,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40575</v>
       </c>
@@ -10689,7 +10718,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>121</v>
@@ -10706,7 +10735,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40603</v>
       </c>
@@ -10730,7 +10759,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>166</v>
@@ -10749,7 +10778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>261</v>
@@ -10766,7 +10795,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40634</v>
       </c>
@@ -10792,7 +10821,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>263</v>
@@ -10809,7 +10838,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40664</v>
       </c>
@@ -10835,7 +10864,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>102</v>
@@ -10852,7 +10881,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>222</v>
@@ -10871,7 +10900,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>266</v>
@@ -10888,7 +10917,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40695</v>
       </c>
@@ -10914,7 +10943,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>267</v>
@@ -10931,7 +10960,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40725</v>
       </c>
@@ -10955,7 +10984,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="51"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>268</v>
@@ -10972,7 +11001,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40756</v>
       </c>
@@ -10998,7 +11027,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>106</v>
@@ -11017,7 +11046,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>269</v>
@@ -11034,7 +11063,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40787</v>
       </c>
@@ -11060,7 +11089,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>166</v>
@@ -11079,7 +11108,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>270</v>
@@ -11096,7 +11125,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>40817</v>
       </c>
@@ -11116,7 +11145,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40848</v>
       </c>
@@ -11140,7 +11169,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40878</v>
       </c>
@@ -11166,7 +11195,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>238</v>
@@ -11188,7 +11217,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>276</v>
@@ -11205,7 +11234,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="50" t="s">
         <v>275</v>
       </c>
@@ -11223,7 +11252,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>40909</v>
       </c>
@@ -11247,7 +11276,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>198</v>
@@ -11264,7 +11293,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40940</v>
       </c>
@@ -11290,7 +11319,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>175</v>
@@ -11307,7 +11336,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40969</v>
       </c>
@@ -11331,7 +11360,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>131</v>
@@ -11350,7 +11379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>281</v>
@@ -11367,7 +11396,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="51"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41000</v>
       </c>
@@ -11391,7 +11420,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>41030</v>
       </c>
@@ -11415,7 +11444,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>113</v>
@@ -11434,7 +11463,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>283</v>
@@ -11451,7 +11480,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>41061</v>
       </c>
@@ -11475,7 +11504,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>41091</v>
       </c>
@@ -11501,7 +11530,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>135</v>
@@ -11518,7 +11547,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>41122</v>
       </c>
@@ -11542,7 +11571,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="51"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>106</v>
@@ -11561,7 +11590,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41153</v>
       </c>
@@ -11585,7 +11614,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="51"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41183</v>
       </c>
@@ -11609,7 +11638,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41214</v>
       </c>
@@ -11632,7 +11661,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>289</v>
@@ -11651,7 +11680,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>41244</v>
       </c>
@@ -11675,7 +11704,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="50" t="s">
         <v>291</v>
       </c>
@@ -11693,7 +11722,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41275</v>
       </c>
@@ -11719,7 +11748,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>293</v>
@@ -11736,7 +11765,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41306</v>
       </c>
@@ -11762,7 +11791,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>296</v>
@@ -11779,7 +11808,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>41334</v>
       </c>
@@ -11803,7 +11832,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>106</v>
@@ -11822,7 +11851,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>278</v>
@@ -11839,7 +11868,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41365</v>
       </c>
@@ -11863,7 +11892,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>106</v>
@@ -11882,7 +11911,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41395</v>
       </c>
@@ -11908,7 +11937,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>102</v>
@@ -11925,7 +11954,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>279</v>
@@ -11942,7 +11971,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41426</v>
       </c>
@@ -11966,7 +11995,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41456</v>
       </c>
@@ -11992,7 +12021,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>114</v>
@@ -12009,7 +12038,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>41487</v>
       </c>
@@ -12035,7 +12064,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>106</v>
@@ -12054,7 +12083,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>106</v>
@@ -12073,7 +12102,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>106</v>
@@ -12092,7 +12121,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>152</v>
@@ -12109,7 +12138,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41518</v>
       </c>
@@ -12135,7 +12164,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>106</v>
@@ -12154,7 +12183,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>300</v>
@@ -12171,7 +12200,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41548</v>
       </c>
@@ -12197,7 +12226,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>131</v>
@@ -12216,7 +12245,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>166</v>
@@ -12235,7 +12264,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>131</v>
@@ -12254,7 +12283,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>114</v>
@@ -12271,7 +12300,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41579</v>
       </c>
@@ -12291,7 +12320,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41609</v>
       </c>
@@ -12311,7 +12340,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="50" t="s">
         <v>305</v>
       </c>
@@ -12329,7 +12358,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41640</v>
       </c>
@@ -12355,7 +12384,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>306</v>
@@ -12372,7 +12401,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>131</v>
@@ -12391,7 +12420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>307</v>
@@ -12408,7 +12437,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>41671</v>
       </c>
@@ -12428,7 +12457,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41699</v>
       </c>
@@ -12454,7 +12483,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>165</v>
@@ -12471,7 +12500,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>41730</v>
       </c>
@@ -12495,7 +12524,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>41760</v>
       </c>
@@ -12521,7 +12550,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>313</v>
@@ -12538,7 +12567,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>41791</v>
       </c>
@@ -12564,7 +12593,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>314</v>
@@ -12581,7 +12610,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41821</v>
       </c>
@@ -12607,7 +12636,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>41852</v>
       </c>
@@ -12633,7 +12662,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>316</v>
@@ -12650,7 +12679,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41883</v>
       </c>
@@ -12676,7 +12705,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>318</v>
@@ -12693,7 +12722,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41913</v>
       </c>
@@ -12717,7 +12746,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>41944</v>
       </c>
@@ -12743,7 +12772,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>279</v>
@@ -12760,7 +12789,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41974</v>
       </c>
@@ -12784,7 +12813,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="50" t="s">
         <v>323</v>
       </c>
@@ -12799,7 +12828,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42005</v>
       </c>
@@ -12819,7 +12848,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>42036</v>
       </c>
@@ -12845,7 +12874,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42064</v>
       </c>
@@ -12869,7 +12898,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>102</v>
@@ -12886,7 +12915,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>166</v>
@@ -12905,7 +12934,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>42095</v>
       </c>
@@ -12931,7 +12960,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42125</v>
       </c>
@@ -12957,7 +12986,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>42156</v>
       </c>
@@ -12981,7 +13010,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42186</v>
       </c>
@@ -13007,7 +13036,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42217</v>
       </c>
@@ -13033,7 +13062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>113</v>
@@ -13052,7 +13081,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>42248</v>
       </c>
@@ -13078,7 +13107,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42278</v>
       </c>
@@ -13098,7 +13127,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42309</v>
       </c>
@@ -13124,7 +13153,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42339</v>
       </c>
@@ -13150,7 +13179,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="50" t="s">
         <v>324</v>
       </c>
@@ -13168,7 +13197,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>42370</v>
       </c>
@@ -13192,7 +13221,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>306</v>
@@ -13209,7 +13238,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42401</v>
       </c>
@@ -13235,7 +13264,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42430</v>
       </c>
@@ -13261,7 +13290,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>166</v>
@@ -13280,7 +13309,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>106</v>
@@ -13299,7 +13328,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42461</v>
       </c>
@@ -13325,7 +13354,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>42491</v>
       </c>
@@ -13349,7 +13378,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42522</v>
       </c>
@@ -13375,7 +13404,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42552</v>
       </c>
@@ -13401,7 +13430,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>166</v>
@@ -13420,7 +13449,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>42583</v>
       </c>
@@ -13446,7 +13475,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>42614</v>
       </c>
@@ -13472,7 +13501,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42644</v>
       </c>
@@ -13492,7 +13521,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>42675</v>
       </c>
@@ -13518,7 +13547,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42705</v>
       </c>
@@ -13544,7 +13573,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="50" t="s">
         <v>325</v>
       </c>
@@ -13562,7 +13591,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>42736</v>
       </c>
@@ -13588,7 +13617,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>131</v>
@@ -13607,7 +13636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>42767</v>
       </c>
@@ -13631,7 +13660,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42826</v>
       </c>
@@ -13655,7 +13684,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>42856</v>
       </c>
@@ -13679,7 +13708,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>102</v>
@@ -13696,7 +13725,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>102</v>
@@ -13713,7 +13742,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>42887</v>
       </c>
@@ -13737,7 +13766,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>131</v>
@@ -13756,7 +13785,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>106</v>
@@ -13775,7 +13804,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>313</v>
@@ -13794,7 +13823,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42917</v>
       </c>
@@ -13816,7 +13845,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42948</v>
       </c>
@@ -13838,7 +13867,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42979</v>
       </c>
@@ -13860,7 +13889,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>43009</v>
       </c>
@@ -13882,7 +13911,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>43040</v>
       </c>
@@ -13906,7 +13935,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>106</v>
@@ -13925,7 +13954,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>106</v>
@@ -13944,7 +13973,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23" t="s">
         <v>46</v>
       </c>
@@ -13962,7 +13991,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43132</v>
       </c>
@@ -13986,7 +14015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>47</v>
@@ -14006,7 +14035,7 @@
         <v>43346</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43252</v>
       </c>
@@ -14028,7 +14057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43374</v>
       </c>
@@ -14052,7 +14081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>43405</v>
       </c>
@@ -14076,7 +14105,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43435</v>
       </c>
@@ -14100,7 +14129,7 @@
         <v>43355</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>55</v>
@@ -14122,7 +14151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>56</v>
@@ -14144,7 +14173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="50" t="s">
         <v>60</v>
       </c>
@@ -14164,7 +14193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43466</v>
       </c>
@@ -14186,7 +14215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43556</v>
       </c>
@@ -14210,7 +14239,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43678</v>
       </c>
@@ -14234,7 +14263,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>43800</v>
       </c>
@@ -14256,7 +14285,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="50" t="s">
         <v>65</v>
       </c>
@@ -14274,7 +14303,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>43831</v>
       </c>
@@ -14296,7 +14325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43862</v>
       </c>
@@ -14320,7 +14349,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>47</v>
@@ -14340,7 +14369,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44075</v>
       </c>
@@ -14362,7 +14391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>44166</v>
       </c>
@@ -14384,7 +14413,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23" t="s">
         <v>71</v>
       </c>
@@ -14402,7 +14431,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44409</v>
       </c>
@@ -14424,7 +14453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44470</v>
       </c>
@@ -14446,7 +14475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44501</v>
       </c>
@@ -14468,7 +14497,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44531</v>
       </c>
@@ -14492,7 +14521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="50" t="s">
         <v>76</v>
       </c>
@@ -14510,7 +14539,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44562</v>
       </c>
@@ -14528,7 +14557,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44593</v>
       </c>
@@ -14546,7 +14575,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44621</v>
       </c>
@@ -14568,7 +14597,7 @@
         <v>44807</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44713</v>
       </c>
@@ -14590,7 +14619,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>47</v>
@@ -14610,7 +14639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>44805</v>
       </c>
@@ -14632,7 +14661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>83</v>
@@ -14654,7 +14683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>83</v>
@@ -14676,7 +14705,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="50" t="s">
         <v>89</v>
       </c>
@@ -14694,7 +14723,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44958</v>
       </c>
@@ -14718,7 +14747,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -14734,7 +14763,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -14750,7 +14779,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -14766,7 +14795,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
       <c r="B441" s="15"/>
       <c r="C441" s="42"/>
@@ -14797,10 +14826,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{F794302C-25B2-4AEE-830F-FC46F6EBE371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{9097B63D-93CB-4C3B-B369-0C9987C84B23}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14823,28 +14852,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14857,7 +14886,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14886,7 +14915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -14910,17 +14939,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14941,7 +14970,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14968,7 +14997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14994,7 +15023,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15020,7 +15049,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15046,7 +15075,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15072,7 +15101,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15098,7 +15127,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15124,7 +15153,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15150,7 +15179,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15170,7 +15199,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15190,7 +15219,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15210,7 +15239,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15231,7 +15260,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15252,7 +15281,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15273,7 +15302,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15294,7 +15323,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15315,7 +15344,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15336,7 +15365,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15357,7 +15386,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15378,7 +15407,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15399,7 +15428,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15420,7 +15449,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15441,7 +15470,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15462,7 +15491,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15483,7 +15512,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15504,7 +15533,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15525,7 +15554,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15546,7 +15575,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15567,7 +15596,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15588,7 +15617,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15609,7 +15638,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15630,7 +15659,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15639,7 +15668,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15648,7 +15677,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15657,7 +15686,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15666,7 +15695,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15675,7 +15704,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15684,7 +15713,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15693,7 +15722,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15702,7 +15731,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15711,7 +15740,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15720,7 +15749,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15729,7 +15758,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15738,7 +15767,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15747,7 +15776,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15756,7 +15785,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15765,7 +15794,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15774,7 +15803,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15783,7 +15812,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15792,7 +15821,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15801,7 +15830,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15810,7 +15839,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15819,7 +15848,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15828,7 +15857,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15837,7 +15866,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15846,7 +15875,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15855,7 +15884,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15864,7 +15893,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15873,7 +15902,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15882,7 +15911,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15891,7 +15920,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
